--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_with_AG.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_with_AG.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">MI_SA_2015</t>
   </si>
@@ -68,6 +68,60 @@
     <t xml:space="preserve">MI_SA_PCDD_ETDec_2070</t>
   </si>
   <si>
+    <t xml:space="preserve">MI_SA_2070.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_2070.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_2070.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_ETInc_2070.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_ETInc_2070.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_ETInc_2070.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_ETDec_2070.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_ETDec_2070.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_ETDec_2070.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_2070.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_2070.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_2070.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_ETInc_2070.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_ETInc_2070.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_ETInc_2070.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_ETDec_2070.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_ETDec_2070.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_ETDec_2070.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">MI_SA_2150</t>
   </si>
   <si>
@@ -93,6 +147,60 @@
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_ETDec_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_2150.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_2150.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_2150.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_ETInc_2150.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_ETInc_2150.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_ETInc_2150.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_ETDec_2150.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_ETDec_2150.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_ETDec_2150.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_2150.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_2150.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_2150.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_ETInc_2150.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_ETInc_2150.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_ETInc_2150.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_ETDec_2150.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_ETDec_2150.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_ETDec_2150.2</t>
   </si>
 </sst>
 </file>
@@ -506,6 +614,114 @@
       <c r="AA1" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -587,6 +803,114 @@
         <v>35500</v>
       </c>
       <c r="AA2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="BK2" t="n">
         <v>35500</v>
       </c>
     </row>
@@ -646,31 +970,139 @@
         <v>24899.3744653758</v>
       </c>
       <c r="S3" t="n">
+        <v>29798.0044379545</v>
+      </c>
+      <c r="T3" t="n">
+        <v>27254.3488704266</v>
+      </c>
+      <c r="U3" t="n">
+        <v>25889.726784843</v>
+      </c>
+      <c r="V3" t="n">
+        <v>30534.9003641696</v>
+      </c>
+      <c r="W3" t="n">
+        <v>27740.7001817286</v>
+      </c>
+      <c r="X3" t="n">
+        <v>26302.3885035235</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>29061.1085117393</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>26767.9975591246</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>25477.0650661625</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>30210.6405813736</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>27666.9850138457</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>26302.3629282621</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>30947.5365075887</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>28153.3363251477</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>26715.0246469426</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>29473.7446551584</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>27180.6337025437</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>25889.7012095816</v>
+      </c>
+      <c r="AK3" t="n">
         <v>24219.6853754445</v>
       </c>
-      <c r="T3" t="n">
+      <c r="AL3" t="n">
         <v>19944.955109567</v>
       </c>
-      <c r="U3" t="n">
+      <c r="AM3" t="n">
         <v>17651.6448810919</v>
       </c>
-      <c r="V3" t="n">
+      <c r="AN3" t="n">
         <v>25458.0728988211</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AO3" t="n">
         <v>20762.2908749955</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AP3" t="n">
         <v>18345.1418941828</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AQ3" t="n">
         <v>22981.297852068</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AR3" t="n">
         <v>19127.6193441385</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AS3" t="n">
         <v>16958.1478680011</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>26186.439437821</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>21911.7091719435</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>19618.3989434684</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>27424.8269611976</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>22729.044937372</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>20311.8959565593</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>24948.0519144445</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>21094.373406515</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>18924.9019303776</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>27591.2637680899</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>23316.5335022124</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>21023.2232737373</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>28829.6512914665</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>24133.8692676409</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>21716.7202868282</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>26352.8762447135</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>22499.1977367839</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>20329.7262606465</v>
       </c>
     </row>
     <row r="4">
@@ -729,31 +1161,139 @@
         <v>8591.4774513118</v>
       </c>
       <c r="S4" t="n">
+        <v>10281.7395504763</v>
+      </c>
+      <c r="T4" t="n">
+        <v>9404.05647925265</v>
+      </c>
+      <c r="U4" t="n">
+        <v>8933.19646250175</v>
+      </c>
+      <c r="V4" t="n">
+        <v>10536.0039595218</v>
+      </c>
+      <c r="W4" t="n">
+        <v>9571.87098922267</v>
+      </c>
+      <c r="X4" t="n">
+        <v>9075.58453156722</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10027.4751414308</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>9236.24196928263</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>8790.80839343628</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>10424.118794851</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9546.43572362729</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>9075.57570687639</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>10678.3832038965</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>9714.25023359731</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>9217.96377594186</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>10169.8543858055</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>9378.62121365727</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>8933.18763781092</v>
+      </c>
+      <c r="AK4" t="n">
         <v>8356.95214232596</v>
       </c>
-      <c r="T4" t="n">
+      <c r="AL4" t="n">
         <v>6881.96534132029</v>
       </c>
-      <c r="U4" t="n">
+      <c r="AM4" t="n">
         <v>6090.6634094503</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AN4" t="n">
         <v>8784.25518553576</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AO4" t="n">
         <v>7163.98534983876</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AP4" t="n">
         <v>6329.95311364778</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AQ4" t="n">
         <v>7929.64909911616</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AR4" t="n">
         <v>6599.94533280182</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AS4" t="n">
         <v>5851.37370525281</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>9035.57654723541</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7560.58974622974</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>6769.28781435975</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>9462.87959044521</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>7842.60975474821</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>7008.57751855723</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>8608.27350402561</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>7278.56973771127</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>6529.99811016226</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>9520.30826502788</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>8045.32146402221</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>7254.01953215222</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>9947.61130823768</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>8327.34147254068</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>7493.3092363497</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>9093.00522181808</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>7763.30145550374</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>7014.72982795473</v>
       </c>
     </row>
     <row r="5">
@@ -812,31 +1352,139 @@
         <v>8063.74625063371</v>
       </c>
       <c r="S5" t="n">
+        <v>8688.45191296187</v>
+      </c>
+      <c r="T5" t="n">
+        <v>8379.33062235269</v>
+      </c>
+      <c r="U5" t="n">
+        <v>8244.61411053206</v>
+      </c>
+      <c r="V5" t="n">
+        <v>8797.45489970471</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8451.27259360297</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8305.65578310805</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8579.44892621903</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>8307.38865110242</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>8183.57243795607</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>8774.04204676356</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8464.92075615438</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8330.20424433375</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>8883.04503350639</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>8536.86272740466</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>8391.24591690973</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8665.03906002072</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>8392.97878490411</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8269.16257175776</v>
+      </c>
+      <c r="AK5" t="n">
         <v>7994.88414185826</v>
       </c>
-      <c r="T5" t="n">
+      <c r="AL5" t="n">
         <v>7441.26799376222</v>
       </c>
-      <c r="U5" t="n">
+      <c r="AM5" t="n">
         <v>7199.99947352507</v>
       </c>
-      <c r="V5" t="n">
+      <c r="AN5" t="n">
         <v>8190.10140927007</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AO5" t="n">
         <v>7570.11139025401</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AP5" t="n">
         <v>7309.32114327568</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AQ5" t="n">
         <v>7799.66687444646</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AR5" t="n">
         <v>7312.42459727043</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AS5" t="n">
         <v>7090.67780377446</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>8274.08299134208</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7720.46684324604</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>7479.19832300889</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>8469.30025875389</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>7849.31023973783</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>7588.5199927595</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>8078.86572393028</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>7591.62344675425</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>7369.87665325828</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>8473.51074097338</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>7919.89459287734</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>7678.62607264019</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>8668.72800838519</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>8048.73798936913</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>7787.9477423908</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>8278.29347356158</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>7791.05119638555</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>7569.30440288958</v>
       </c>
     </row>
     <row r="6">
@@ -895,31 +1543,139 @@
         <v>5644.6223754436</v>
       </c>
       <c r="S6" t="n">
+        <v>6081.91633907331</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5865.53143564689</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5771.22987737244</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6158.2184297933</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5915.89081552208</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5813.95904817564</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>6005.61424835332</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>5815.1720557717</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>5728.50070656925</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>6141.82943273449</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>5925.44452930807</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>5831.14297103362</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>6218.13152345448</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>5975.80390918326</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5873.87214183681</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6065.5273420145</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>5875.08514943288</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>5788.41380023043</v>
+      </c>
+      <c r="AK6" t="n">
         <v>5596.41889930079</v>
       </c>
-      <c r="T6" t="n">
+      <c r="AL6" t="n">
         <v>5208.88759563356</v>
       </c>
-      <c r="U6" t="n">
+      <c r="AM6" t="n">
         <v>5039.99963146756</v>
       </c>
-      <c r="V6" t="n">
+      <c r="AN6" t="n">
         <v>5733.07098648906</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AO6" t="n">
         <v>5299.07797317781</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AP6" t="n">
         <v>5116.52480029297</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AQ6" t="n">
         <v>5459.76681211253</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AR6" t="n">
         <v>5118.69721808931</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AS6" t="n">
         <v>4963.47446264213</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>5791.85809393946</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>5404.32679027223</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>5235.43882610623</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5928.51018112773</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>5494.51716781649</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>5311.96399493165</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>5655.2060067512</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>5314.13641272798</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>5158.9136572808</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>5931.45751868136</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>5543.92621501413</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>5375.03825084813</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>6068.10960586963</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>5634.11659255839</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>5451.56341967355</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>5794.8054314931</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>5453.73583746988</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>5298.5130820227</v>
       </c>
     </row>
     <row r="7">
@@ -978,31 +1734,139 @@
         <v>19442.5881820835</v>
       </c>
       <c r="S7" t="n">
+        <v>20948.822945697</v>
+      </c>
+      <c r="T7" t="n">
+        <v>20203.4971672282</v>
+      </c>
+      <c r="U7" t="n">
+        <v>19878.6806887273</v>
+      </c>
+      <c r="V7" t="n">
+        <v>21211.6412581769</v>
+      </c>
+      <c r="W7" t="n">
+        <v>20376.9572534649</v>
+      </c>
+      <c r="X7" t="n">
+        <v>20025.8589437161</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>20686.004633217</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>20030.0370809914</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>19731.5024337385</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>21155.1902683077</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>20409.8644898389</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>20085.048011338</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>21418.0085807876</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>20583.3245760757</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>20232.2262663268</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>20892.3719558277</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>20236.4044036021</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>19937.8697563493</v>
+      </c>
+      <c r="AK7" t="n">
         <v>19276.5539864805</v>
       </c>
-      <c r="T7" t="n">
+      <c r="AL7" t="n">
         <v>17941.7239405156</v>
       </c>
-      <c r="U7" t="n">
+      <c r="AM7" t="n">
         <v>17359.9987306104</v>
       </c>
-      <c r="V7" t="n">
+      <c r="AN7" t="n">
         <v>19747.2445090178</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AO7" t="n">
         <v>18252.3796853902</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AP7" t="n">
         <v>17623.5854232314</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AQ7" t="n">
         <v>18805.8634639431</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AR7" t="n">
         <v>17631.0681956409</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AS7" t="n">
         <v>17096.4120379895</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>19949.7334346803</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>18614.9033887154</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>18033.1781788103</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>20420.4239572177</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>18925.5591335901</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>18296.7648714312</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>19479.042912143</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>18304.2476438408</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>17769.5914861894</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>20430.5758976802</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>19095.7458517153</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>18514.0206418102</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>20901.2664202176</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>19406.40159659</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>18777.6073344311</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>19959.8853751429</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>18785.0901068407</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>18250.4339491893</v>
       </c>
     </row>
     <row r="8">
@@ -1061,31 +1925,139 @@
         <v>5250.3473313572</v>
       </c>
       <c r="S8" t="n">
+        <v>6283.28528084665</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5746.92340398774</v>
+      </c>
+      <c r="U8" t="n">
+        <v>5459.1756159733</v>
+      </c>
+      <c r="V8" t="n">
+        <v>6438.66908637445</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5849.47671563608</v>
+      </c>
+      <c r="X8" t="n">
+        <v>5546.19054706886</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>6127.90147531885</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>5644.37009233939</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>5372.16068487773</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>6370.29481907559</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>5833.93294221668</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>5546.18515420224</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>6525.67862460339</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>5936.48625386502</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>5633.2000852978</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6214.91101354779</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>5731.37963056833</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>5459.17022310667</v>
+      </c>
+      <c r="AK8" t="n">
         <v>5107.02630919919</v>
       </c>
-      <c r="T8" t="n">
+      <c r="AL8" t="n">
         <v>4205.64548636239</v>
       </c>
-      <c r="U8" t="n">
+      <c r="AM8" t="n">
         <v>3722.07208355295</v>
       </c>
-      <c r="V8" t="n">
+      <c r="AN8" t="n">
         <v>5368.15594671628</v>
       </c>
-      <c r="W8" t="n">
+      <c r="AO8" t="n">
         <v>4377.99104712367</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AP8" t="n">
         <v>3868.30468056252</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AQ8" t="n">
         <v>4845.89667168209</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AR8" t="n">
         <v>4033.2999256011</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AS8" t="n">
         <v>3575.83948654337</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>5521.74122331053</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>4620.36040047373</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>4136.78699766429</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5782.87086082762</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>4792.70596123501</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>4283.01959467386</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>5260.61158579343</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>4448.01483971244</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>3990.55440065471</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>5817.96616196148</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>4916.58533912468</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>4433.01193631524</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>6079.09579947857</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>5088.93089988596</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>4579.24453332481</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>5556.83652444438</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>4744.23977836339</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>4286.77933930566</v>
       </c>
     </row>
     <row r="9">
@@ -1144,31 +2116,139 @@
         <v>9676.49550076046</v>
       </c>
       <c r="S9" t="n">
+        <v>10426.1422955542</v>
+      </c>
+      <c r="T9" t="n">
+        <v>10055.1967468232</v>
+      </c>
+      <c r="U9" t="n">
+        <v>9893.53693263848</v>
+      </c>
+      <c r="V9" t="n">
+        <v>10556.9458796456</v>
+      </c>
+      <c r="W9" t="n">
+        <v>10141.5271123236</v>
+      </c>
+      <c r="X9" t="n">
+        <v>9966.78693972966</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10295.3387114628</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>9968.8663813229</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>9820.28692554729</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>10528.8504561163</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10157.9049073853</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>9996.2450932005</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>10659.6540402077</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>10244.2352728856</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>10069.4951002917</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>10398.0468720249</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>10071.5745418849</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9922.99508610931</v>
+      </c>
+      <c r="AK9" t="n">
         <v>9593.86097022991</v>
       </c>
-      <c r="T9" t="n">
+      <c r="AL9" t="n">
         <v>8929.52159251466</v>
       </c>
-      <c r="U9" t="n">
+      <c r="AM9" t="n">
         <v>8639.99936823008</v>
       </c>
-      <c r="V9" t="n">
+      <c r="AN9" t="n">
         <v>9828.12169112407</v>
       </c>
-      <c r="W9" t="n">
+      <c r="AO9" t="n">
         <v>9084.13366830481</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AP9" t="n">
         <v>8771.18537193081</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AQ9" t="n">
         <v>9359.60024933574</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AR9" t="n">
         <v>8774.90951672451</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AS9" t="n">
         <v>8508.81336452934</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>9928.89958961049</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9264.56021189524</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>8975.03798761066</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>10163.1603105047</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>9419.17228768539</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>9106.22399131139</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>9694.63886871632</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>9109.94813610509</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>8843.85198390992</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>10168.2128891681</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>9503.8735114528</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>9214.35128716822</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>10402.4736100622</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>9658.48558724295</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>9345.53729086895</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>9933.95216827388</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>9349.26143566265</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>9083.16528346748</v>
       </c>
     </row>
     <row r="10">
@@ -1227,31 +2307,139 @@
         <v>1343.95770843895</v>
       </c>
       <c r="S10" t="n">
+        <v>1448.07531882698</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1396.55510372545</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1374.10235175534</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1466.24248328412</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1408.54543226716</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1384.27596385134</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1429.90815436984</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1384.56477518374</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1363.92873965935</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1462.34034112726</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1410.82012602573</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1388.36737405562</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1480.5075055844</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1422.81045456744</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1398.54098615162</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1444.17317667012</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1398.82979748402</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1378.19376195963</v>
+      </c>
+      <c r="AK10" t="n">
         <v>1332.48069030971</v>
       </c>
-      <c r="T10" t="n">
+      <c r="AL10" t="n">
         <v>1240.2113322937</v>
       </c>
-      <c r="U10" t="n">
+      <c r="AM10" t="n">
         <v>1199.99991225418</v>
       </c>
-      <c r="V10" t="n">
+      <c r="AN10" t="n">
         <v>1365.01690154501</v>
       </c>
-      <c r="W10" t="n">
+      <c r="AO10" t="n">
         <v>1261.685231709</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AP10" t="n">
         <v>1218.22019054595</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AQ10" t="n">
         <v>1299.94447907441</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AR10" t="n">
         <v>1218.73743287841</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AS10" t="n">
         <v>1181.77963396241</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>1379.01383189035</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>1286.74447387434</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>1246.53305383481</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1411.55004312565</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>1308.21837328964</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>1264.75333212658</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>1346.47762065505</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>1265.27057445904</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>1228.31277554305</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>1412.25179016223</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>1319.98243214622</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>1279.7710121067</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>1444.78800139753</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>1341.45633156152</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>1297.99129039847</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>1379.71557892693</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>1298.50853273092</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>1261.55073381493</v>
       </c>
     </row>
     <row r="11">
@@ -1310,31 +2498,139 @@
         <v>51292.6274059965</v>
       </c>
       <c r="S11" t="n">
+        <v>81131.6760093971</v>
+      </c>
+      <c r="T11" t="n">
+        <v>64599.4882111698</v>
+      </c>
+      <c r="U11" t="n">
+        <v>57448.4685623765</v>
+      </c>
+      <c r="V11" t="n">
+        <v>86994.9061027934</v>
+      </c>
+      <c r="W11" t="n">
+        <v>68469.2200728113</v>
+      </c>
+      <c r="X11" t="n">
+        <v>60731.8774146784</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>75268.4459160009</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>60729.7563495283</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>54165.0597100746</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>83183.4133694528</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>66651.2255712255</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>59500.2059224322</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>89046.6434628491</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>70520.957432867</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>62783.6147747341</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>77320.1832760566</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>62781.493709584</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>56216.7970701303</v>
+      </c>
+      <c r="AK11" t="n">
         <v>63678.2745377785</v>
       </c>
-      <c r="T11" t="n">
+      <c r="AL11" t="n">
         <v>40885.8023502333</v>
       </c>
-      <c r="U11" t="n">
+      <c r="AM11" t="n">
         <v>31026.8884274681</v>
       </c>
-      <c r="V11" t="n">
+      <c r="AN11" t="n">
         <v>71761.748453266</v>
       </c>
-      <c r="W11" t="n">
+      <c r="AO11" t="n">
         <v>46220.895134455</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AP11" t="n">
         <v>35553.6338201411</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AQ11" t="n">
         <v>55594.8006222909</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AR11" t="n">
         <v>35550.7095660115</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AS11" t="n">
         <v>26500.1430347951</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>70600.9760550623</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>47808.5038675171</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>37949.5899447519</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>78684.4499705498</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>53143.5966517388</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>42476.3353374249</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>62517.5021395747</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>42473.4110832953</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>33422.8445520789</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>75545.7628531221</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>52753.2906655769</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>42894.3767428117</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>83629.2367686096</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>58088.3834497986</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>47421.1221354847</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>67462.2889376345</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>47418.1978813551</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>38367.6313501387</v>
       </c>
     </row>
     <row r="12">
@@ -1393,31 +2689,139 @@
         <v>35835.3683570111</v>
       </c>
       <c r="S12" t="n">
+        <v>56682.2883180776</v>
+      </c>
+      <c r="T12" t="n">
+        <v>45132.1480843274</v>
+      </c>
+      <c r="U12" t="n">
+        <v>40136.1196840982</v>
+      </c>
+      <c r="V12" t="n">
+        <v>60778.6082140283</v>
+      </c>
+      <c r="W12" t="n">
+        <v>47835.7192156548</v>
+      </c>
+      <c r="X12" t="n">
+        <v>42430.0588258305</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>52585.968422127</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>42428.5769529999</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>37842.1805423658</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>58115.725593331</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>46565.5853595808</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>41569.5569593516</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>62212.0454892817</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>49269.1564909082</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>43863.4961010839</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>54019.4056973804</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>43862.0142282533</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>39275.6178176192</v>
+      </c>
+      <c r="AK12" t="n">
         <v>44488.5462064164</v>
       </c>
-      <c r="T12" t="n">
+      <c r="AL12" t="n">
         <v>28564.6858406258</v>
       </c>
-      <c r="U12" t="n">
+      <c r="AM12" t="n">
         <v>21676.7990255111</v>
       </c>
-      <c r="V12" t="n">
+      <c r="AN12" t="n">
         <v>50136.0296755888</v>
       </c>
-      <c r="W12" t="n">
+      <c r="AO12" t="n">
         <v>32292.0249302796</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AP12" t="n">
         <v>24839.3897682477</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AQ12" t="n">
         <v>38841.062737244</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AR12" t="n">
         <v>24837.346750972</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AS12" t="n">
         <v>18514.2082827745</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>49325.0611490785</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>33401.2007832879</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>26513.3139681732</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>54972.5446182509</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>37128.5398729417</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>29675.9047109098</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>43677.5776799061</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>29673.8616936341</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>23350.7232254366</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>52779.7146795514</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>36855.8543137608</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>29967.9674986461</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>58427.1981487238</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>40583.1934034146</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>33130.5582413827</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>47132.231210379</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>33128.515224107</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>26805.3767559095</v>
       </c>
     </row>
     <row r="13">
@@ -1476,31 +2880,139 @@
         <v>15936.1664981052</v>
       </c>
       <c r="S13" t="n">
+        <v>23349.5824289399</v>
+      </c>
+      <c r="T13" t="n">
+        <v>19606.7169979143</v>
+      </c>
+      <c r="U13" t="n">
+        <v>18016.7725090324</v>
+      </c>
+      <c r="V13" t="n">
+        <v>24695.1580177797</v>
+      </c>
+      <c r="W13" t="n">
+        <v>20494.7968865486</v>
+      </c>
+      <c r="X13" t="n">
+        <v>18770.2948387827</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>22004.0068401001</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>18718.6371092801</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>17263.2501792821</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>24297.4993440663</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>20554.6339130407</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>18964.6894241588</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>25643.0749329061</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>21442.713801675</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>19718.2117539091</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>22951.9237552265</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>19666.5540244065</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>18211.1670944085</v>
+      </c>
+      <c r="AK13" t="n">
         <v>19236.7608538959</v>
       </c>
-      <c r="T13" t="n">
+      <c r="AL13" t="n">
         <v>14276.0061212992</v>
       </c>
-      <c r="U13" t="n">
+      <c r="AM13" t="n">
         <v>12168.7103092705</v>
       </c>
-      <c r="V13" t="n">
+      <c r="AN13" t="n">
         <v>21020.172679251</v>
       </c>
-      <c r="W13" t="n">
+      <c r="AO13" t="n">
         <v>15453.0579260335</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AP13" t="n">
         <v>13167.4209314693</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AQ13" t="n">
         <v>17453.3490285409</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AR13" t="n">
         <v>13098.9543165649</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AS13" t="n">
         <v>11169.9996870717</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>21337.6606167026</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>16376.9058841059</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>14269.6100720772</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>23121.0724420577</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>17553.9576888402</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>15268.320694276</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>19554.2487913476</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>15199.8540793716</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>13270.8994498784</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>22838.3033044217</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>17877.548571825</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>15770.2527597963</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>24621.7151297768</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>19054.6003765593</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>16768.9633819951</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>21054.8914790667</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>16700.4967670907</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>14771.5421375975</v>
       </c>
     </row>
     <row r="14">
@@ -1559,31 +3071,139 @@
         <v>18255.2355034263</v>
       </c>
       <c r="S14" t="n">
+        <v>26747.4694241961</v>
+      </c>
+      <c r="T14" t="n">
+        <v>22459.9332774615</v>
+      </c>
+      <c r="U14" t="n">
+        <v>20638.6162696751</v>
+      </c>
+      <c r="V14" t="n">
+        <v>28288.8563860387</v>
+      </c>
+      <c r="W14" t="n">
+        <v>23477.2486722776</v>
+      </c>
+      <c r="X14" t="n">
+        <v>21501.7929683069</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>25206.0824623535</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>21442.6178826454</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>19775.4395710432</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>27833.3294724939</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>23545.7933257593</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>21724.4763179729</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>29374.7164343365</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>24563.1087205754</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>22587.6530166047</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>26291.9425106513</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>22528.4779309432</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>20861.299619341</v>
+      </c>
+      <c r="AK14" t="n">
         <v>22036.1402318882</v>
       </c>
-      <c r="T14" t="n">
+      <c r="AL14" t="n">
         <v>16353.4846240255</v>
       </c>
-      <c r="U14" t="n">
+      <c r="AM14" t="n">
         <v>13939.5300930822</v>
       </c>
-      <c r="V14" t="n">
+      <c r="AN14" t="n">
         <v>24079.0784049628</v>
       </c>
-      <c r="W14" t="n">
+      <c r="AO14" t="n">
         <v>17701.8238182547</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AP14" t="n">
         <v>15083.575470004</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AQ14" t="n">
         <v>19993.2020588136</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AR14" t="n">
         <v>15005.1454297963</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AS14" t="n">
         <v>12795.4847161604</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>24442.7679452526</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>18760.1123373899</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>16346.1578064466</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>26485.7061183272</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>20108.4515316191</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>17490.2031833684</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>22399.829772178</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>17411.7731431607</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>15202.1124295248</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>26161.7877405129</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>20479.1321326502</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>18065.1776017069</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>28204.7259135875</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>21827.4713268794</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>19209.2229786287</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>24118.8495674383</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>19130.792938421</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>16921.1322247851</v>
       </c>
     </row>
     <row r="15">
@@ -1642,31 +3262,139 @@
         <v>13854.9507240989</v>
       </c>
       <c r="S15" t="n">
+        <v>20300.1966639664</v>
+      </c>
+      <c r="T15" t="n">
+        <v>17046.1382855001</v>
+      </c>
+      <c r="U15" t="n">
+        <v>15663.8358007632</v>
+      </c>
+      <c r="V15" t="n">
+        <v>21470.0440975473</v>
+      </c>
+      <c r="W15" t="n">
+        <v>17818.2375916635</v>
+      </c>
+      <c r="X15" t="n">
+        <v>16318.9503635685</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>19130.3492303856</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>16274.0389793368</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>15008.721237958</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>21124.31845958</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>17870.2600811137</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>16487.9575963769</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>22294.1658931609</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>18642.3593872771</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>17143.0721591821</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>19954.4710259992</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>17098.1607749504</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>15832.8430335716</v>
+      </c>
+      <c r="AK15" t="n">
         <v>16724.4973095438</v>
       </c>
-      <c r="T15" t="n">
+      <c r="AL15" t="n">
         <v>12411.6023368011</v>
       </c>
-      <c r="U15" t="n">
+      <c r="AM15" t="n">
         <v>10579.5130673881</v>
       </c>
-      <c r="V15" t="n">
+      <c r="AN15" t="n">
         <v>18275.0008741248</v>
       </c>
-      <c r="W15" t="n">
+      <c r="AO15" t="n">
         <v>13434.9346894246</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AP15" t="n">
         <v>11447.7950635535</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AQ15" t="n">
         <v>15173.9937449627</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AR15" t="n">
         <v>11388.2699841776</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AS15" t="n">
         <v>9711.23107122271</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>18551.0258346705</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>14238.1308619278</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>12406.0415925148</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>20101.5293992515</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>15261.4632145513</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>13274.3235886802</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>17000.5222700894</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>13214.7985093043</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>11537.7595963494</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>19855.6890669039</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>15542.7940941612</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>13710.7048247482</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>21406.1926314849</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>16566.1264467847</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>14578.9868209136</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>18305.1855023228</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>14519.4617415377</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>12842.4228285828</v>
       </c>
     </row>
     <row r="16">
@@ -1725,31 +3453,139 @@
         <v>43646.0679463028</v>
       </c>
       <c r="S16" t="n">
+        <v>63949.9757568728</v>
+      </c>
+      <c r="T16" t="n">
+        <v>53698.9935689146</v>
+      </c>
+      <c r="U16" t="n">
+        <v>49344.4441105588</v>
+      </c>
+      <c r="V16" t="n">
+        <v>67635.2462128743</v>
+      </c>
+      <c r="W16" t="n">
+        <v>56131.2720698756</v>
+      </c>
+      <c r="X16" t="n">
+        <v>51408.1955659196</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>60264.7053008713</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>51266.7150679536</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>47280.6926551979</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>66546.1362632264</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>56295.1540752682</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>51940.6046169124</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>70231.4067192279</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>58727.4325762292</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>54004.3560722732</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>62860.8658072249</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>53862.8755743072</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>49876.8531615515</v>
+      </c>
+      <c r="AK16" t="n">
         <v>52685.7554729836</v>
       </c>
-      <c r="T16" t="n">
+      <c r="AL16" t="n">
         <v>39099.2107949015</v>
       </c>
-      <c r="U16" t="n">
+      <c r="AM16" t="n">
         <v>33327.7364440468</v>
       </c>
-      <c r="V16" t="n">
+      <c r="AN16" t="n">
         <v>57570.1744275007</v>
       </c>
-      <c r="W16" t="n">
+      <c r="AO16" t="n">
         <v>42322.9273048828</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AP16" t="n">
         <v>36063.0110585764</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AQ16" t="n">
         <v>47801.3365184664</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AR16" t="n">
         <v>35875.4942849202</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AS16" t="n">
         <v>30592.4618295172</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>58439.7122860437</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>44853.1676079616</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>39081.6932571069</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>63324.1312405608</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>48076.8841179429</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>41816.9678716365</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>53555.2933315265</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>41629.4510979803</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>36346.4186425773</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>62549.6814382295</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>48963.1367601474</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>43191.6624092927</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>67434.1003927466</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>52186.8532701287</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>45926.9370238223</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>57665.2624837123</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>45739.4202501661</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>40456.3877947631</v>
       </c>
     </row>
     <row r="17">
@@ -1808,31 +3644,139 @@
         <v>11298.0284874625</v>
       </c>
       <c r="S17" t="n">
+        <v>16553.8084384275</v>
+      </c>
+      <c r="T17" t="n">
+        <v>13900.2844388198</v>
+      </c>
+      <c r="U17" t="n">
+        <v>12773.0849877468</v>
+      </c>
+      <c r="V17" t="n">
+        <v>17507.7612812616</v>
+      </c>
+      <c r="W17" t="n">
+        <v>14529.8933150904</v>
+      </c>
+      <c r="X17" t="n">
+        <v>13307.2985797339</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15599.8555955933</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>13270.6755625492</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>12238.8713957596</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>17225.8390872112</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>14572.3150876034</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>13445.1156365304</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>18179.7919300453</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>15201.923963874</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13979.3292285176</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>16271.886244377</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>13942.7062113329</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>12910.9020445433</v>
+      </c>
+      <c r="AK17" t="n">
         <v>13638.0020979113</v>
       </c>
-      <c r="T17" t="n">
+      <c r="AL17" t="n">
         <v>10121.0491158464</v>
       </c>
-      <c r="U17" t="n">
+      <c r="AM17" t="n">
         <v>8627.07074164694</v>
       </c>
-      <c r="V17" t="n">
+      <c r="AN17" t="n">
         <v>14902.3612278271</v>
       </c>
-      <c r="W17" t="n">
+      <c r="AO17" t="n">
         <v>10955.5261415909</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AP17" t="n">
         <v>9335.11185439986</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AQ17" t="n">
         <v>12373.6429679954</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AR17" t="n">
         <v>9286.57209010186</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AS17" t="n">
         <v>7919.02962889405</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>15127.4459596026</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>11610.4929775377</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>10116.5146033383</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>16391.8050895184</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>12444.9700032822</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>10824.5557160912</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>13863.0868296867</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>10776.0159517932</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>9408.47349058537</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>16191.3344322392</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>12674.3814501743</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>11180.4030759749</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>17455.693562155</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>13508.8584759188</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>11888.4441887278</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>14926.9753023233</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>11839.9044244298</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>10472.361963222</v>
       </c>
     </row>
     <row r="18">
@@ -1891,31 +3835,139 @@
         <v>35975.3012363941</v>
       </c>
       <c r="S18" t="n">
+        <v>52710.8110802562</v>
+      </c>
+      <c r="T18" t="n">
+        <v>44261.4320288738</v>
+      </c>
+      <c r="U18" t="n">
+        <v>40672.1916715097</v>
+      </c>
+      <c r="V18" t="n">
+        <v>55748.3977640177</v>
+      </c>
+      <c r="W18" t="n">
+        <v>46266.2392401563</v>
+      </c>
+      <c r="X18" t="n">
+        <v>42373.2402144161</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>49673.2243964948</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>42256.6248175912</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>38971.1431286033</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>54850.6981461199</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>46401.3190947375</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>42812.0787373734</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>57888.2848298814</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>48406.12630602</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>44513.1272802798</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>51813.1114623585</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>44396.5118834549</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>41111.030194467</v>
+      </c>
+      <c r="AK18" t="n">
         <v>43426.2698380859</v>
       </c>
-      <c r="T18" t="n">
+      <c r="AL18" t="n">
         <v>32227.5511320373</v>
       </c>
-      <c r="U18" t="n">
+      <c r="AM18" t="n">
         <v>27470.4094668233</v>
       </c>
-      <c r="V18" t="n">
+      <c r="AN18" t="n">
         <v>47452.2554886075</v>
       </c>
-      <c r="W18" t="n">
+      <c r="AO18" t="n">
         <v>34884.7016613816</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AP18" t="n">
         <v>29724.9614311154</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AQ18" t="n">
         <v>39400.2841875643</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AR18" t="n">
         <v>29570.400602693</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AS18" t="n">
         <v>25215.8575025312</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>48168.9726608398</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>36970.2539547912</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>32213.1122895772</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>52194.9583113614</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>39627.4044841355</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>34467.6642538693</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>44142.9870103182</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>34313.1034254469</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>29958.5603252851</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>51556.6175342355</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>40357.8988281869</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>35600.7571629729</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>55582.6031847571</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>43015.0493575312</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>37855.309127265</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>47530.6318837139</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>37700.7482988426</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>33346.2051986808</v>
       </c>
     </row>
     <row r="19">
@@ -1974,31 +4026,139 @@
         <v>2991.84142964136</v>
       </c>
       <c r="S19" t="n">
+        <v>3655.28699654894</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3638.02125416503</v>
+      </c>
+      <c r="U19" t="n">
+        <v>3628.3200191129</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3660.01481363131</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3641.14161343939</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3630.96759667902</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>3650.55917946658</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>3634.90089489066</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3625.67244154677</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>4108.02343362424</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>4090.75769124032</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>4081.05645618819</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>4112.7512507066</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>4093.87805051468</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>4083.70403375432</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>4103.29561654187</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>4087.63733196596</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>4078.40887862206</v>
+      </c>
+      <c r="AK19" t="n">
         <v>-748.410183419322</v>
       </c>
-      <c r="T19" t="n">
+      <c r="AL19" t="n">
         <v>-771.294089164634</v>
       </c>
-      <c r="U19" t="n">
+      <c r="AM19" t="n">
         <v>-784.15204473988</v>
       </c>
-      <c r="V19" t="n">
+      <c r="AN19" t="n">
         <v>-742.143964563031</v>
       </c>
-      <c r="W19" t="n">
+      <c r="AO19" t="n">
         <v>-767.158384719482</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AP19" t="n">
         <v>-780.642962180357</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AQ19" t="n">
         <v>-754.676402275613</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AR19" t="n">
         <v>-775.429793609786</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AS19" t="n">
         <v>-787.661127299403</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>255.004628667452</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>232.12072292214</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>219.262767346893</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>261.270847523743</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>236.256427367292</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>222.771849906416</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>248.738409811161</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>227.985018476988</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>215.753684787371</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>971.729494443719</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>948.845588698407</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>935.98763312316</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>977.99571330001</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>952.981293143559</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>939.496715682683</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>965.463275587428</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>944.709884253255</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>932.478550563637</v>
       </c>
     </row>
     <row r="20">
@@ -2057,31 +4217,139 @@
         <v>10822.3220248326</v>
       </c>
       <c r="S20" t="n">
+        <v>15856.8059778622</v>
+      </c>
+      <c r="T20" t="n">
+        <v>13315.0093045538</v>
+      </c>
+      <c r="U20" t="n">
+        <v>12235.2708829996</v>
+      </c>
+      <c r="V20" t="n">
+        <v>16770.5923852086</v>
+      </c>
+      <c r="W20" t="n">
+        <v>13918.1083334024</v>
+      </c>
+      <c r="X20" t="n">
+        <v>12746.9912711136</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>14943.0195705158</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>12711.9102757051</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>11723.5504948856</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>16500.5405993286</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>13958.7439260202</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>12879.005504466</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>17414.327006675</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>14561.8429548689</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>13390.72589258</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>15586.7541919822</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>13355.6448971716</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>12367.2851163521</v>
+      </c>
+      <c r="AK20" t="n">
         <v>13063.7704306308</v>
       </c>
-      <c r="T20" t="n">
+      <c r="AL20" t="n">
         <v>9694.89967938968</v>
       </c>
-      <c r="U20" t="n">
+      <c r="AM20" t="n">
         <v>8263.8256577881</v>
       </c>
-      <c r="V20" t="n">
+      <c r="AN20" t="n">
         <v>14274.8933866554</v>
       </c>
-      <c r="W20" t="n">
+      <c r="AO20" t="n">
         <v>10494.240830366</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AP20" t="n">
         <v>8942.05451316188</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AQ20" t="n">
         <v>11852.6474746061</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AR20" t="n">
         <v>8895.55852841338</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AS20" t="n">
         <v>7585.59680241428</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>14490.5008665667</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>11121.6301153256</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>9690.55609372399</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>15701.6238225913</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>11920.9712663019</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>10368.7849490978</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>13279.377910542</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>10322.2889643493</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>9012.32723835017</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>15509.5940350923</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>12140.7232838512</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>10709.6492622496</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>16720.7169911169</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>12940.0644348275</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>11387.8781176234</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>14298.4710790676</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>11341.3821328749</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>10031.4204068758</v>
       </c>
     </row>
     <row r="21">
@@ -2164,6 +4432,114 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK21" t="n">
         <v>0</v>
       </c>
     </row>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_with_AG.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_with_AG.xlsx
@@ -2552,85 +2552,85 @@
         <v>56216.7970701303</v>
       </c>
       <c r="AK11" t="n">
-        <v>63678.2745377785</v>
+        <v>98589.1392276515</v>
       </c>
       <c r="AL11" t="n">
-        <v>40885.8023502333</v>
+        <v>75796.6670401063</v>
       </c>
       <c r="AM11" t="n">
-        <v>31026.8884274681</v>
+        <v>65937.7531173411</v>
       </c>
       <c r="AN11" t="n">
-        <v>71761.748453266</v>
+        <v>106672.613143139</v>
       </c>
       <c r="AO11" t="n">
-        <v>46220.895134455</v>
+        <v>81131.759824328</v>
       </c>
       <c r="AP11" t="n">
-        <v>35553.6338201411</v>
+        <v>70464.4985100141</v>
       </c>
       <c r="AQ11" t="n">
-        <v>55594.8006222909</v>
+        <v>90505.6653121639</v>
       </c>
       <c r="AR11" t="n">
-        <v>35550.7095660115</v>
+        <v>70461.5742558845</v>
       </c>
       <c r="AS11" t="n">
-        <v>26500.1430347951</v>
+        <v>61411.0077246681</v>
       </c>
       <c r="AT11" t="n">
-        <v>70600.9760550623</v>
+        <v>98589.1392276515</v>
       </c>
       <c r="AU11" t="n">
-        <v>47808.5038675171</v>
+        <v>75796.6670401063</v>
       </c>
       <c r="AV11" t="n">
-        <v>37949.5899447519</v>
+        <v>65937.7531173411</v>
       </c>
       <c r="AW11" t="n">
-        <v>78684.4499705498</v>
+        <v>106672.613143139</v>
       </c>
       <c r="AX11" t="n">
-        <v>53143.5966517388</v>
+        <v>81131.759824328</v>
       </c>
       <c r="AY11" t="n">
-        <v>42476.3353374249</v>
+        <v>70464.4985100141</v>
       </c>
       <c r="AZ11" t="n">
-        <v>62517.5021395747</v>
+        <v>90505.6653121639</v>
       </c>
       <c r="BA11" t="n">
-        <v>42473.4110832953</v>
+        <v>70461.5742558845</v>
       </c>
       <c r="BB11" t="n">
-        <v>33422.8445520789</v>
+        <v>61411.0077246681</v>
       </c>
       <c r="BC11" t="n">
-        <v>75545.7628531221</v>
+        <v>98589.1392276515</v>
       </c>
       <c r="BD11" t="n">
-        <v>52753.2906655769</v>
+        <v>75796.6670401063</v>
       </c>
       <c r="BE11" t="n">
-        <v>42894.3767428117</v>
+        <v>65937.7531173411</v>
       </c>
       <c r="BF11" t="n">
-        <v>83629.2367686096</v>
+        <v>106672.613143139</v>
       </c>
       <c r="BG11" t="n">
-        <v>58088.3834497986</v>
+        <v>81131.759824328</v>
       </c>
       <c r="BH11" t="n">
-        <v>47421.1221354847</v>
+        <v>70464.4985100141</v>
       </c>
       <c r="BI11" t="n">
-        <v>67462.2889376345</v>
+        <v>90505.6653121639</v>
       </c>
       <c r="BJ11" t="n">
-        <v>47418.1978813551</v>
+        <v>70461.5742558845</v>
       </c>
       <c r="BK11" t="n">
-        <v>38367.6313501387</v>
+        <v>61411.0077246681</v>
       </c>
     </row>
     <row r="12">
@@ -2743,85 +2743,85 @@
         <v>39275.6178176192</v>
       </c>
       <c r="AK12" t="n">
-        <v>44488.5462064164</v>
+        <v>68878.868151147</v>
       </c>
       <c r="AL12" t="n">
-        <v>28564.6858406258</v>
+        <v>52955.0077853564</v>
       </c>
       <c r="AM12" t="n">
-        <v>21676.7990255111</v>
+        <v>46067.1209702417</v>
       </c>
       <c r="AN12" t="n">
-        <v>50136.0296755888</v>
+        <v>74526.3516203194</v>
       </c>
       <c r="AO12" t="n">
-        <v>32292.0249302796</v>
+        <v>56682.3468750102</v>
       </c>
       <c r="AP12" t="n">
-        <v>24839.3897682477</v>
+        <v>49229.7117129783</v>
       </c>
       <c r="AQ12" t="n">
-        <v>38841.062737244</v>
+        <v>63231.3846819746</v>
       </c>
       <c r="AR12" t="n">
-        <v>24837.346750972</v>
+        <v>49227.6686957026</v>
       </c>
       <c r="AS12" t="n">
-        <v>18514.2082827745</v>
+        <v>42904.5302275051</v>
       </c>
       <c r="AT12" t="n">
-        <v>49325.0611490785</v>
+        <v>68878.868151147</v>
       </c>
       <c r="AU12" t="n">
-        <v>33401.2007832879</v>
+        <v>52955.0077853564</v>
       </c>
       <c r="AV12" t="n">
-        <v>26513.3139681732</v>
+        <v>46067.1209702417</v>
       </c>
       <c r="AW12" t="n">
-        <v>54972.5446182509</v>
+        <v>74526.3516203194</v>
       </c>
       <c r="AX12" t="n">
-        <v>37128.5398729417</v>
+        <v>56682.3468750102</v>
       </c>
       <c r="AY12" t="n">
-        <v>29675.9047109098</v>
+        <v>49229.7117129783</v>
       </c>
       <c r="AZ12" t="n">
-        <v>43677.5776799061</v>
+        <v>63231.3846819746</v>
       </c>
       <c r="BA12" t="n">
-        <v>29673.8616936341</v>
+        <v>49227.6686957026</v>
       </c>
       <c r="BB12" t="n">
-        <v>23350.7232254366</v>
+        <v>42904.5302275051</v>
       </c>
       <c r="BC12" t="n">
-        <v>52779.7146795514</v>
+        <v>68878.868151147</v>
       </c>
       <c r="BD12" t="n">
-        <v>36855.8543137608</v>
+        <v>52955.0077853564</v>
       </c>
       <c r="BE12" t="n">
-        <v>29967.9674986461</v>
+        <v>46067.1209702417</v>
       </c>
       <c r="BF12" t="n">
-        <v>58427.1981487238</v>
+        <v>74526.3516203194</v>
       </c>
       <c r="BG12" t="n">
-        <v>40583.1934034146</v>
+        <v>56682.3468750102</v>
       </c>
       <c r="BH12" t="n">
-        <v>33130.5582413827</v>
+        <v>49229.7117129783</v>
       </c>
       <c r="BI12" t="n">
-        <v>47132.231210379</v>
+        <v>63231.3846819746</v>
       </c>
       <c r="BJ12" t="n">
-        <v>33128.515224107</v>
+        <v>49227.6686957026</v>
       </c>
       <c r="BK12" t="n">
-        <v>26805.3767559095</v>
+        <v>42904.5302275051</v>
       </c>
     </row>
     <row r="13">
@@ -2934,31 +2934,31 @@
         <v>18211.1670944085</v>
       </c>
       <c r="AK13" t="n">
-        <v>19236.7608538959</v>
+        <v>21072.9581202869</v>
       </c>
       <c r="AL13" t="n">
-        <v>14276.0061212992</v>
+        <v>16112.2033876902</v>
       </c>
       <c r="AM13" t="n">
-        <v>12168.7103092705</v>
+        <v>14004.9075756615</v>
       </c>
       <c r="AN13" t="n">
-        <v>21020.172679251</v>
+        <v>22856.369945642</v>
       </c>
       <c r="AO13" t="n">
-        <v>15453.0579260335</v>
+        <v>17289.2551924245</v>
       </c>
       <c r="AP13" t="n">
-        <v>13167.4209314693</v>
+        <v>15003.6181978603</v>
       </c>
       <c r="AQ13" t="n">
-        <v>17453.3490285409</v>
+        <v>19289.5462949319</v>
       </c>
       <c r="AR13" t="n">
-        <v>13098.9543165649</v>
+        <v>14935.1515829559</v>
       </c>
       <c r="AS13" t="n">
-        <v>11169.9996870717</v>
+        <v>13006.1969534627</v>
       </c>
       <c r="AT13" t="n">
         <v>21337.6606167026</v>
@@ -3125,31 +3125,31 @@
         <v>20861.299619341</v>
       </c>
       <c r="AK14" t="n">
-        <v>22036.1402318882</v>
+        <v>24139.5453094332</v>
       </c>
       <c r="AL14" t="n">
-        <v>16353.4846240255</v>
+        <v>18456.8897015705</v>
       </c>
       <c r="AM14" t="n">
-        <v>13939.5300930822</v>
+        <v>16042.9351706272</v>
       </c>
       <c r="AN14" t="n">
-        <v>24079.0784049628</v>
+        <v>26182.4834825078</v>
       </c>
       <c r="AO14" t="n">
-        <v>17701.8238182547</v>
+        <v>19805.2288957997</v>
       </c>
       <c r="AP14" t="n">
-        <v>15083.575470004</v>
+        <v>17186.980547549</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19993.2020588136</v>
+        <v>22096.6071363586</v>
       </c>
       <c r="AR14" t="n">
-        <v>15005.1454297963</v>
+        <v>17108.5505073413</v>
       </c>
       <c r="AS14" t="n">
-        <v>12795.4847161604</v>
+        <v>14898.8897937054</v>
       </c>
       <c r="AT14" t="n">
         <v>24442.7679452526</v>
@@ -3316,31 +3316,31 @@
         <v>15832.8430335716</v>
       </c>
       <c r="AK15" t="n">
-        <v>16724.4973095438</v>
+        <v>18320.8926941301</v>
       </c>
       <c r="AL15" t="n">
-        <v>12411.6023368011</v>
+        <v>14007.9977213874</v>
       </c>
       <c r="AM15" t="n">
-        <v>10579.5130673881</v>
+        <v>12175.9084519744</v>
       </c>
       <c r="AN15" t="n">
-        <v>18275.0008741248</v>
+        <v>19871.3962587111</v>
       </c>
       <c r="AO15" t="n">
-        <v>13434.9346894246</v>
+        <v>15031.3300740109</v>
       </c>
       <c r="AP15" t="n">
-        <v>11447.7950635535</v>
+        <v>13044.1904481398</v>
       </c>
       <c r="AQ15" t="n">
-        <v>15173.9937449627</v>
+        <v>16770.389129549</v>
       </c>
       <c r="AR15" t="n">
-        <v>11388.2699841776</v>
+        <v>12984.6653687639</v>
       </c>
       <c r="AS15" t="n">
-        <v>9711.23107122271</v>
+        <v>11307.626455809</v>
       </c>
       <c r="AT15" t="n">
         <v>18551.0258346705</v>
@@ -3507,31 +3507,31 @@
         <v>49876.8531615515</v>
       </c>
       <c r="AK16" t="n">
-        <v>52685.7554729836</v>
+        <v>57714.7435085471</v>
       </c>
       <c r="AL16" t="n">
-        <v>39099.2107949015</v>
+        <v>44128.198830465</v>
       </c>
       <c r="AM16" t="n">
-        <v>33327.7364440468</v>
+        <v>38356.7244796103</v>
       </c>
       <c r="AN16" t="n">
-        <v>57570.1744275007</v>
+        <v>62599.1624630642</v>
       </c>
       <c r="AO16" t="n">
-        <v>42322.9273048828</v>
+        <v>47351.9153404463</v>
       </c>
       <c r="AP16" t="n">
-        <v>36063.0110585764</v>
+        <v>41091.9990941399</v>
       </c>
       <c r="AQ16" t="n">
-        <v>47801.3365184664</v>
+        <v>52830.3245540299</v>
       </c>
       <c r="AR16" t="n">
-        <v>35875.4942849202</v>
+        <v>40904.4823204837</v>
       </c>
       <c r="AS16" t="n">
-        <v>30592.4618295172</v>
+        <v>35621.4498650807</v>
       </c>
       <c r="AT16" t="n">
         <v>58439.7122860437</v>
@@ -3698,31 +3698,31 @@
         <v>12910.9020445433</v>
       </c>
       <c r="AK17" t="n">
-        <v>13638.0020979113</v>
+        <v>14939.7837419945</v>
       </c>
       <c r="AL17" t="n">
-        <v>10121.0491158464</v>
+        <v>11422.8307599296</v>
       </c>
       <c r="AM17" t="n">
-        <v>8627.07074164694</v>
+        <v>9928.85238573018</v>
       </c>
       <c r="AN17" t="n">
-        <v>14902.3612278271</v>
+        <v>16204.1428719103</v>
       </c>
       <c r="AO17" t="n">
-        <v>10955.5261415909</v>
+        <v>12257.3077856741</v>
       </c>
       <c r="AP17" t="n">
-        <v>9335.11185439986</v>
+        <v>10636.8934984831</v>
       </c>
       <c r="AQ17" t="n">
-        <v>12373.6429679954</v>
+        <v>13675.4246120786</v>
       </c>
       <c r="AR17" t="n">
-        <v>9286.57209010186</v>
+        <v>10588.3537341851</v>
       </c>
       <c r="AS17" t="n">
-        <v>7919.02962889405</v>
+        <v>9220.81127297729</v>
       </c>
       <c r="AT17" t="n">
         <v>15127.4459596026</v>
@@ -3889,31 +3889,31 @@
         <v>41111.030194467</v>
       </c>
       <c r="AK18" t="n">
-        <v>43426.2698380859</v>
+        <v>47571.4166521403</v>
       </c>
       <c r="AL18" t="n">
-        <v>32227.5511320373</v>
+        <v>36372.6979460917</v>
       </c>
       <c r="AM18" t="n">
-        <v>27470.4094668233</v>
+        <v>31615.5562808777</v>
       </c>
       <c r="AN18" t="n">
-        <v>47452.2554886075</v>
+        <v>51597.4023026619</v>
       </c>
       <c r="AO18" t="n">
-        <v>34884.7016613816</v>
+        <v>39029.848475436</v>
       </c>
       <c r="AP18" t="n">
-        <v>29724.9614311154</v>
+        <v>33870.1082451698</v>
       </c>
       <c r="AQ18" t="n">
-        <v>39400.2841875643</v>
+        <v>43545.4310016187</v>
       </c>
       <c r="AR18" t="n">
-        <v>29570.400602693</v>
+        <v>33715.5474167474</v>
       </c>
       <c r="AS18" t="n">
-        <v>25215.8575025312</v>
+        <v>29361.0043165856</v>
       </c>
       <c r="AT18" t="n">
         <v>48168.9726608398</v>
@@ -4080,31 +4080,31 @@
         <v>4078.40887862206</v>
       </c>
       <c r="AK19" t="n">
-        <v>-748.410183419322</v>
+        <v>128.579555752464</v>
       </c>
       <c r="AL19" t="n">
-        <v>-771.294089164634</v>
+        <v>105.695650007152</v>
       </c>
       <c r="AM19" t="n">
-        <v>-784.15204473988</v>
+        <v>92.8376944319054</v>
       </c>
       <c r="AN19" t="n">
-        <v>-742.143964563031</v>
+        <v>134.845774608755</v>
       </c>
       <c r="AO19" t="n">
-        <v>-767.158384719482</v>
+        <v>109.831354452304</v>
       </c>
       <c r="AP19" t="n">
-        <v>-780.642962180357</v>
+        <v>96.3467769914284</v>
       </c>
       <c r="AQ19" t="n">
-        <v>-754.676402275613</v>
+        <v>122.313336896173</v>
       </c>
       <c r="AR19" t="n">
-        <v>-775.429793609786</v>
+        <v>101.559945562</v>
       </c>
       <c r="AS19" t="n">
-        <v>-787.661127299403</v>
+        <v>89.3286118723825</v>
       </c>
       <c r="AT19" t="n">
         <v>255.004628667452</v>
@@ -4271,31 +4271,31 @@
         <v>12367.2851163521</v>
       </c>
       <c r="AK20" t="n">
-        <v>13063.7704306308</v>
+        <v>14310.7402160158</v>
       </c>
       <c r="AL20" t="n">
-        <v>9694.89967938968</v>
+        <v>10941.8694647747</v>
       </c>
       <c r="AM20" t="n">
-        <v>8263.8256577881</v>
+        <v>9510.79544317312</v>
       </c>
       <c r="AN20" t="n">
-        <v>14274.8933866554</v>
+        <v>15521.8631720404</v>
       </c>
       <c r="AO20" t="n">
-        <v>10494.240830366</v>
+        <v>11741.210615751</v>
       </c>
       <c r="AP20" t="n">
-        <v>8942.05451316188</v>
+        <v>10189.0242985469</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11852.6474746061</v>
+        <v>13099.6172599911</v>
       </c>
       <c r="AR20" t="n">
-        <v>8895.55852841338</v>
+        <v>10142.5283137984</v>
       </c>
       <c r="AS20" t="n">
-        <v>7585.59680241428</v>
+        <v>8832.5665877993</v>
       </c>
       <c r="AT20" t="n">
         <v>14490.5008665667</v>
